--- a/public/data/labour_lists.xlsx
+++ b/public/data/labour_lists.xlsx
@@ -20,9 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t xml:space="preserve">passport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ME00092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF 707183</t>
   </si>
 </sst>
 </file>
@@ -116,21 +128,40 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
